--- a/irm_final_evaluation/cleaned_dataset.xlsx
+++ b/irm_final_evaluation/cleaned_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myagh\fc-performeter\irm_final_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{689A7915-CAE2-4DD0-9CF7-27E38DDFCDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EBFEF8-6FAF-4205-9E8A-26F5D34B4F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F3E53C95-867E-458C-A69D-F0385B7D34E0}"/>
   </bookViews>
@@ -5901,14 +5901,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DD1F6F-2E8D-4689-ADC6-069D48725056}">
   <dimension ref="A1:DR101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="55.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/irm_final_evaluation/cleaned_dataset.xlsx
+++ b/irm_final_evaluation/cleaned_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myagh\fc-performeter\irm_final_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F00ABF-47C9-4CC2-BD07-CB9680D99D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D507580-895C-42FB-9C58-23E56381CD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F3E53C95-867E-458C-A69D-F0385B7D34E0}"/>
   </bookViews>
@@ -5898,8 +5898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DD1F6F-2E8D-4689-ADC6-069D48725056}">
   <dimension ref="A1:DR101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CJ2" sqref="CJ2"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BE6" sqref="BE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,9 +6517,6 @@
       <c r="CH2" t="s">
         <v>143</v>
       </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
       <c r="CK2" t="s">
         <v>142</v>
       </c>
@@ -6576,9 +6573,6 @@
       </c>
       <c r="DD2" t="s">
         <v>167</v>
-      </c>
-      <c r="DH2">
-        <v>0</v>
       </c>
       <c r="DI2">
         <v>383269014</v>
@@ -6837,9 +6831,6 @@
       <c r="CH3" t="s">
         <v>143</v>
       </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
       <c r="CK3" t="s">
         <v>142</v>
       </c>
@@ -6896,9 +6887,6 @@
       </c>
       <c r="DD3" t="s">
         <v>196</v>
-      </c>
-      <c r="DH3">
-        <v>0</v>
       </c>
       <c r="DI3">
         <v>383313698</v>
@@ -7157,9 +7145,6 @@
       <c r="CH4" t="s">
         <v>143</v>
       </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
       <c r="CK4" t="s">
         <v>142</v>
       </c>
@@ -7216,9 +7201,6 @@
       </c>
       <c r="DD4" t="s">
         <v>218</v>
-      </c>
-      <c r="DH4">
-        <v>0</v>
       </c>
       <c r="DI4">
         <v>383344918</v>
@@ -7477,9 +7459,6 @@
       <c r="CH5" t="s">
         <v>143</v>
       </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
       <c r="CK5" t="s">
         <v>142</v>
       </c>
@@ -7536,9 +7515,6 @@
       </c>
       <c r="DD5" t="s">
         <v>240</v>
-      </c>
-      <c r="DH5">
-        <v>0</v>
       </c>
       <c r="DI5">
         <v>383442096</v>
@@ -7710,12 +7686,6 @@
       <c r="BD6" t="s">
         <v>143</v>
       </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
       <c r="BG6" t="s">
         <v>147</v>
       </c>
@@ -7797,9 +7767,6 @@
       <c r="CH6" t="s">
         <v>143</v>
       </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
       <c r="CK6" t="s">
         <v>142</v>
       </c>
@@ -7856,9 +7823,6 @@
       </c>
       <c r="DD6" t="s">
         <v>218</v>
-      </c>
-      <c r="DH6">
-        <v>0</v>
       </c>
       <c r="DI6">
         <v>383654764</v>
@@ -8117,9 +8081,6 @@
       <c r="CH7" t="s">
         <v>143</v>
       </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
       <c r="CK7" t="s">
         <v>142</v>
       </c>
@@ -8176,9 +8137,6 @@
       </c>
       <c r="DD7" t="s">
         <v>218</v>
-      </c>
-      <c r="DH7">
-        <v>0</v>
       </c>
       <c r="DI7">
         <v>383730691</v>
@@ -8350,12 +8308,6 @@
       <c r="BD8" t="s">
         <v>143</v>
       </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
       <c r="BG8" t="s">
         <v>263</v>
       </c>
@@ -8496,9 +8448,6 @@
       </c>
       <c r="DD8" t="s">
         <v>299</v>
-      </c>
-      <c r="DH8">
-        <v>0</v>
       </c>
       <c r="DI8">
         <v>383752743</v>
@@ -8718,9 +8667,6 @@
       <c r="BU9" t="s">
         <v>304</v>
       </c>
-      <c r="BV9">
-        <v>0</v>
-      </c>
       <c r="BW9" t="s">
         <v>172</v>
       </c>
@@ -8757,9 +8703,6 @@
       <c r="CH9" t="s">
         <v>143</v>
       </c>
-      <c r="CI9">
-        <v>0</v>
-      </c>
       <c r="CK9" t="s">
         <v>142</v>
       </c>
@@ -8816,9 +8759,6 @@
       </c>
       <c r="DD9" t="s">
         <v>218</v>
-      </c>
-      <c r="DH9">
-        <v>0</v>
       </c>
       <c r="DI9">
         <v>384089673</v>
@@ -8990,12 +8930,6 @@
       <c r="BD10" t="s">
         <v>143</v>
       </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
       <c r="BG10" t="s">
         <v>176</v>
       </c>
@@ -9077,9 +9011,6 @@
       <c r="CH10" t="s">
         <v>143</v>
       </c>
-      <c r="CI10">
-        <v>0</v>
-      </c>
       <c r="CK10" t="s">
         <v>148</v>
       </c>
@@ -9136,9 +9067,6 @@
       </c>
       <c r="DD10" t="s">
         <v>333</v>
-      </c>
-      <c r="DH10">
-        <v>0</v>
       </c>
       <c r="DI10">
         <v>384099830</v>
@@ -9310,12 +9238,6 @@
       <c r="BD11" t="s">
         <v>143</v>
       </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
       <c r="BG11" t="s">
         <v>199</v>
       </c>
@@ -9397,9 +9319,6 @@
       <c r="CH11" t="s">
         <v>143</v>
       </c>
-      <c r="CI11">
-        <v>0</v>
-      </c>
       <c r="CK11" t="s">
         <v>142</v>
       </c>
@@ -9456,9 +9375,6 @@
       </c>
       <c r="DD11" t="s">
         <v>353</v>
-      </c>
-      <c r="DH11">
-        <v>0</v>
       </c>
       <c r="DI11">
         <v>384127269</v>
@@ -9630,12 +9546,6 @@
       <c r="BD12" t="s">
         <v>143</v>
       </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
       <c r="BG12" t="s">
         <v>199</v>
       </c>
@@ -9717,9 +9627,6 @@
       <c r="CH12" t="s">
         <v>143</v>
       </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
       <c r="CK12" t="s">
         <v>142</v>
       </c>
@@ -9776,9 +9683,6 @@
       </c>
       <c r="DD12" t="s">
         <v>375</v>
-      </c>
-      <c r="DH12">
-        <v>0</v>
       </c>
       <c r="DI12">
         <v>384131591</v>
@@ -10037,9 +9941,6 @@
       <c r="CH13" t="s">
         <v>143</v>
       </c>
-      <c r="CI13">
-        <v>0</v>
-      </c>
       <c r="CK13" t="s">
         <v>142</v>
       </c>
@@ -10096,9 +9997,6 @@
       </c>
       <c r="DD13" t="s">
         <v>393</v>
-      </c>
-      <c r="DH13">
-        <v>0</v>
       </c>
       <c r="DI13">
         <v>384145510</v>
@@ -10357,9 +10255,6 @@
       <c r="CH14" t="s">
         <v>143</v>
       </c>
-      <c r="CI14">
-        <v>0</v>
-      </c>
       <c r="CK14" t="s">
         <v>142</v>
       </c>
@@ -10416,9 +10311,6 @@
       </c>
       <c r="DD14" t="s">
         <v>412</v>
-      </c>
-      <c r="DH14">
-        <v>0</v>
       </c>
       <c r="DI14">
         <v>384150591</v>
@@ -10737,9 +10629,6 @@
       <c r="DD15" t="s">
         <v>430</v>
       </c>
-      <c r="DH15">
-        <v>0</v>
-      </c>
       <c r="DI15">
         <v>384179006</v>
       </c>
@@ -10997,9 +10886,6 @@
       <c r="CH16" t="s">
         <v>143</v>
       </c>
-      <c r="CI16">
-        <v>0</v>
-      </c>
       <c r="CK16" t="s">
         <v>142</v>
       </c>
@@ -11056,9 +10942,6 @@
       </c>
       <c r="DD16" t="s">
         <v>448</v>
-      </c>
-      <c r="DH16">
-        <v>0</v>
       </c>
       <c r="DI16">
         <v>384181588</v>
@@ -11230,12 +11113,6 @@
       <c r="BD17" t="s">
         <v>143</v>
       </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
       <c r="BG17" t="s">
         <v>176</v>
       </c>
@@ -11317,9 +11194,6 @@
       <c r="CH17" t="s">
         <v>143</v>
       </c>
-      <c r="CI17">
-        <v>0</v>
-      </c>
       <c r="CK17" t="s">
         <v>142</v>
       </c>
@@ -11376,9 +11250,6 @@
       </c>
       <c r="DD17" t="s">
         <v>467</v>
-      </c>
-      <c r="DH17">
-        <v>0</v>
       </c>
       <c r="DI17">
         <v>384190516</v>
@@ -11637,9 +11508,6 @@
       <c r="CH18" t="s">
         <v>143</v>
       </c>
-      <c r="CI18">
-        <v>0</v>
-      </c>
       <c r="CK18" t="s">
         <v>142</v>
       </c>
@@ -11696,9 +11564,6 @@
       </c>
       <c r="DD18" t="s">
         <v>483</v>
-      </c>
-      <c r="DH18">
-        <v>0</v>
       </c>
       <c r="DI18">
         <v>384214935</v>
@@ -11957,9 +11822,6 @@
       <c r="CH19" t="s">
         <v>143</v>
       </c>
-      <c r="CI19">
-        <v>0</v>
-      </c>
       <c r="CK19" t="s">
         <v>142</v>
       </c>
@@ -12016,9 +11878,6 @@
       </c>
       <c r="DD19" t="s">
         <v>501</v>
-      </c>
-      <c r="DH19">
-        <v>0</v>
       </c>
       <c r="DI19">
         <v>384220332</v>
@@ -12238,9 +12097,6 @@
       <c r="BU20" t="s">
         <v>304</v>
       </c>
-      <c r="BV20">
-        <v>0</v>
-      </c>
       <c r="BW20" t="s">
         <v>133</v>
       </c>
@@ -12277,9 +12133,6 @@
       <c r="CH20" t="s">
         <v>143</v>
       </c>
-      <c r="CI20">
-        <v>0</v>
-      </c>
       <c r="CK20" t="s">
         <v>142</v>
       </c>
@@ -12336,9 +12189,6 @@
       </c>
       <c r="DD20" t="s">
         <v>517</v>
-      </c>
-      <c r="DH20">
-        <v>0</v>
       </c>
       <c r="DI20">
         <v>384222118</v>
@@ -12597,9 +12447,6 @@
       <c r="CH21" t="s">
         <v>143</v>
       </c>
-      <c r="CI21">
-        <v>0</v>
-      </c>
       <c r="CK21" t="s">
         <v>142</v>
       </c>
@@ -12656,9 +12503,6 @@
       </c>
       <c r="DD21" t="s">
         <v>533</v>
-      </c>
-      <c r="DH21">
-        <v>0</v>
       </c>
       <c r="DI21">
         <v>384229071</v>
@@ -12917,9 +12761,6 @@
       <c r="CH22" t="s">
         <v>143</v>
       </c>
-      <c r="CI22">
-        <v>0</v>
-      </c>
       <c r="CK22" t="s">
         <v>142</v>
       </c>
@@ -12976,9 +12817,6 @@
       </c>
       <c r="DD22" t="s">
         <v>552</v>
-      </c>
-      <c r="DH22">
-        <v>0</v>
       </c>
       <c r="DI22">
         <v>384344404</v>
@@ -13192,9 +13030,6 @@
       <c r="BU23" t="s">
         <v>304</v>
       </c>
-      <c r="BV23">
-        <v>0</v>
-      </c>
       <c r="BW23" t="s">
         <v>133</v>
       </c>
@@ -13290,9 +13125,6 @@
       </c>
       <c r="DD23" t="s">
         <v>218</v>
-      </c>
-      <c r="DH23">
-        <v>0</v>
       </c>
       <c r="DI23">
         <v>384415687</v>
@@ -13512,9 +13344,6 @@
       <c r="BU24" t="s">
         <v>304</v>
       </c>
-      <c r="BV24">
-        <v>0</v>
-      </c>
       <c r="BW24" t="s">
         <v>132</v>
       </c>
@@ -13610,9 +13439,6 @@
       </c>
       <c r="DD24" t="s">
         <v>218</v>
-      </c>
-      <c r="DH24">
-        <v>0</v>
       </c>
       <c r="DI24">
         <v>384443328</v>
@@ -13871,9 +13697,6 @@
       <c r="CH25" t="s">
         <v>143</v>
       </c>
-      <c r="CI25">
-        <v>0</v>
-      </c>
       <c r="CK25" t="s">
         <v>142</v>
       </c>
@@ -13930,9 +13753,6 @@
       </c>
       <c r="DD25" t="s">
         <v>604</v>
-      </c>
-      <c r="DH25">
-        <v>0</v>
       </c>
       <c r="DI25">
         <v>384473131</v>
@@ -14191,9 +14011,6 @@
       <c r="CH26" t="s">
         <v>143</v>
       </c>
-      <c r="CI26">
-        <v>0</v>
-      </c>
       <c r="CK26" t="s">
         <v>148</v>
       </c>
@@ -14250,9 +14067,6 @@
       </c>
       <c r="DD26" t="s">
         <v>620</v>
-      </c>
-      <c r="DH26">
-        <v>0</v>
       </c>
       <c r="DI26">
         <v>384482593</v>
@@ -14511,9 +14325,6 @@
       <c r="CH27" t="s">
         <v>143</v>
       </c>
-      <c r="CI27">
-        <v>0</v>
-      </c>
       <c r="CK27" t="s">
         <v>148</v>
       </c>
@@ -14570,9 +14381,6 @@
       </c>
       <c r="DD27" t="s">
         <v>635</v>
-      </c>
-      <c r="DH27">
-        <v>0</v>
       </c>
       <c r="DI27">
         <v>384498000</v>
@@ -14831,9 +14639,6 @@
       <c r="CH28" t="s">
         <v>143</v>
       </c>
-      <c r="CI28">
-        <v>0</v>
-      </c>
       <c r="CK28" t="s">
         <v>148</v>
       </c>
@@ -14890,9 +14695,6 @@
       </c>
       <c r="DD28" t="s">
         <v>651</v>
-      </c>
-      <c r="DH28">
-        <v>0</v>
       </c>
       <c r="DI28">
         <v>384503264</v>
@@ -15151,9 +14953,6 @@
       <c r="CH29" t="s">
         <v>143</v>
       </c>
-      <c r="CI29">
-        <v>0</v>
-      </c>
       <c r="CK29" t="s">
         <v>142</v>
       </c>
@@ -15210,9 +15009,6 @@
       </c>
       <c r="DD29" t="s">
         <v>669</v>
-      </c>
-      <c r="DH29">
-        <v>0</v>
       </c>
       <c r="DI29">
         <v>384506420</v>
@@ -15531,9 +15327,6 @@
       <c r="DD30" t="s">
         <v>686</v>
       </c>
-      <c r="DH30">
-        <v>0</v>
-      </c>
       <c r="DI30">
         <v>384516890</v>
       </c>
@@ -15791,9 +15584,6 @@
       <c r="CH31" t="s">
         <v>143</v>
       </c>
-      <c r="CI31">
-        <v>0</v>
-      </c>
       <c r="CK31" t="s">
         <v>142</v>
       </c>
@@ -15850,9 +15640,6 @@
       </c>
       <c r="DD31" t="s">
         <v>703</v>
-      </c>
-      <c r="DH31">
-        <v>0</v>
       </c>
       <c r="DI31">
         <v>384519654</v>
@@ -16072,15 +15859,9 @@
       <c r="BU32" t="s">
         <v>304</v>
       </c>
-      <c r="BV32">
-        <v>0</v>
-      </c>
       <c r="BW32" t="s">
         <v>304</v>
       </c>
-      <c r="BX32">
-        <v>0</v>
-      </c>
       <c r="BY32" t="s">
         <v>142</v>
       </c>
@@ -16111,9 +15892,6 @@
       <c r="CH32" t="s">
         <v>143</v>
       </c>
-      <c r="CI32">
-        <v>0</v>
-      </c>
       <c r="CK32" t="s">
         <v>142</v>
       </c>
@@ -16170,9 +15948,6 @@
       </c>
       <c r="DD32" t="s">
         <v>719</v>
-      </c>
-      <c r="DH32">
-        <v>0</v>
       </c>
       <c r="DI32">
         <v>384523461</v>
@@ -16431,9 +16206,6 @@
       <c r="CH33" t="s">
         <v>143</v>
       </c>
-      <c r="CI33">
-        <v>0</v>
-      </c>
       <c r="CK33" t="s">
         <v>142</v>
       </c>
@@ -16490,9 +16262,6 @@
       </c>
       <c r="DD33" t="s">
         <v>737</v>
-      </c>
-      <c r="DH33">
-        <v>0</v>
       </c>
       <c r="DI33">
         <v>384548370</v>
@@ -16751,9 +16520,6 @@
       <c r="CH34" t="s">
         <v>143</v>
       </c>
-      <c r="CI34">
-        <v>0</v>
-      </c>
       <c r="CK34" t="s">
         <v>142</v>
       </c>
@@ -16810,9 +16576,6 @@
       </c>
       <c r="DD34" t="s">
         <v>218</v>
-      </c>
-      <c r="DH34">
-        <v>0</v>
       </c>
       <c r="DI34">
         <v>384569789</v>
@@ -17071,9 +16834,6 @@
       <c r="CH35" t="s">
         <v>143</v>
       </c>
-      <c r="CI35">
-        <v>0</v>
-      </c>
       <c r="CK35" t="s">
         <v>142</v>
       </c>
@@ -17130,9 +16890,6 @@
       </c>
       <c r="DD35" t="s">
         <v>769</v>
-      </c>
-      <c r="DH35">
-        <v>0</v>
       </c>
       <c r="DI35">
         <v>384572713</v>
@@ -17391,9 +17148,6 @@
       <c r="CH36" t="s">
         <v>143</v>
       </c>
-      <c r="CI36">
-        <v>0</v>
-      </c>
       <c r="CK36" t="s">
         <v>142</v>
       </c>
@@ -17450,9 +17204,6 @@
       </c>
       <c r="DD36" t="s">
         <v>787</v>
-      </c>
-      <c r="DH36">
-        <v>0</v>
       </c>
       <c r="DI36">
         <v>384587411</v>
@@ -17711,9 +17462,6 @@
       <c r="CH37" t="s">
         <v>143</v>
       </c>
-      <c r="CI37">
-        <v>0</v>
-      </c>
       <c r="CK37" t="s">
         <v>142</v>
       </c>
@@ -17770,9 +17518,6 @@
       </c>
       <c r="DD37" t="s">
         <v>804</v>
-      </c>
-      <c r="DH37">
-        <v>0</v>
       </c>
       <c r="DI37">
         <v>384592659</v>
@@ -17992,9 +17737,6 @@
       <c r="BU38" t="s">
         <v>304</v>
       </c>
-      <c r="BV38">
-        <v>0</v>
-      </c>
       <c r="BW38" t="s">
         <v>132</v>
       </c>
@@ -18031,9 +17773,6 @@
       <c r="CH38" t="s">
         <v>143</v>
       </c>
-      <c r="CI38">
-        <v>0</v>
-      </c>
       <c r="CK38" t="s">
         <v>148</v>
       </c>
@@ -18090,9 +17829,6 @@
       </c>
       <c r="DD38" t="s">
         <v>821</v>
-      </c>
-      <c r="DH38">
-        <v>0</v>
       </c>
       <c r="DI38">
         <v>384630848</v>
@@ -18312,9 +18048,6 @@
       <c r="BU39" t="s">
         <v>304</v>
       </c>
-      <c r="BV39">
-        <v>0</v>
-      </c>
       <c r="BW39" t="s">
         <v>132</v>
       </c>
@@ -18351,9 +18084,6 @@
       <c r="CH39" t="s">
         <v>143</v>
       </c>
-      <c r="CI39">
-        <v>0</v>
-      </c>
       <c r="CK39" t="s">
         <v>148</v>
       </c>
@@ -18410,9 +18140,6 @@
       </c>
       <c r="DD39" t="s">
         <v>837</v>
-      </c>
-      <c r="DH39">
-        <v>0</v>
       </c>
       <c r="DI39">
         <v>384632002</v>
@@ -18671,9 +18398,6 @@
       <c r="CH40" t="s">
         <v>143</v>
       </c>
-      <c r="CI40">
-        <v>0</v>
-      </c>
       <c r="CK40" t="s">
         <v>142</v>
       </c>
@@ -18730,9 +18454,6 @@
       </c>
       <c r="DD40" t="s">
         <v>218</v>
-      </c>
-      <c r="DH40">
-        <v>0</v>
       </c>
       <c r="DI40">
         <v>384866031</v>
@@ -18991,9 +18712,6 @@
       <c r="CH41" t="s">
         <v>143</v>
       </c>
-      <c r="CI41">
-        <v>0</v>
-      </c>
       <c r="CK41" t="s">
         <v>142</v>
       </c>
@@ -19050,9 +18768,6 @@
       </c>
       <c r="DD41" t="s">
         <v>872</v>
-      </c>
-      <c r="DH41">
-        <v>0</v>
       </c>
       <c r="DI41">
         <v>384915140</v>
@@ -19311,9 +19026,6 @@
       <c r="CH42" t="s">
         <v>143</v>
       </c>
-      <c r="CI42">
-        <v>0</v>
-      </c>
       <c r="CK42" t="s">
         <v>142</v>
       </c>
@@ -19370,9 +19082,6 @@
       </c>
       <c r="DD42" t="s">
         <v>890</v>
-      </c>
-      <c r="DH42">
-        <v>0</v>
       </c>
       <c r="DI42">
         <v>384924257</v>
@@ -19592,15 +19301,9 @@
       <c r="BU43" t="s">
         <v>304</v>
       </c>
-      <c r="BV43">
-        <v>0</v>
-      </c>
       <c r="BW43" t="s">
         <v>304</v>
       </c>
-      <c r="BX43">
-        <v>0</v>
-      </c>
       <c r="BY43" t="s">
         <v>142</v>
       </c>
@@ -19631,9 +19334,6 @@
       <c r="CH43" t="s">
         <v>143</v>
       </c>
-      <c r="CI43">
-        <v>0</v>
-      </c>
       <c r="CK43" t="s">
         <v>142</v>
       </c>
@@ -19690,9 +19390,6 @@
       </c>
       <c r="DD43" t="s">
         <v>906</v>
-      </c>
-      <c r="DH43">
-        <v>0</v>
       </c>
       <c r="DI43">
         <v>384937178</v>
@@ -19912,9 +19609,6 @@
       <c r="BU44" t="s">
         <v>304</v>
       </c>
-      <c r="BV44">
-        <v>0</v>
-      </c>
       <c r="BW44" t="s">
         <v>133</v>
       </c>
@@ -19951,9 +19645,6 @@
       <c r="CH44" t="s">
         <v>143</v>
       </c>
-      <c r="CI44">
-        <v>0</v>
-      </c>
       <c r="CK44" t="s">
         <v>142</v>
       </c>
@@ -20010,9 +19701,6 @@
       </c>
       <c r="DD44" t="s">
         <v>921</v>
-      </c>
-      <c r="DH44">
-        <v>0</v>
       </c>
       <c r="DI44">
         <v>384960645</v>
@@ -20271,9 +19959,6 @@
       <c r="CH45" t="s">
         <v>143</v>
       </c>
-      <c r="CI45">
-        <v>0</v>
-      </c>
       <c r="CK45" t="s">
         <v>142</v>
       </c>
@@ -20330,9 +20015,6 @@
       </c>
       <c r="DD45" t="s">
         <v>938</v>
-      </c>
-      <c r="DH45">
-        <v>0</v>
       </c>
       <c r="DI45">
         <v>384986147</v>
@@ -20591,9 +20273,6 @@
       <c r="CH46" t="s">
         <v>143</v>
       </c>
-      <c r="CI46">
-        <v>0</v>
-      </c>
       <c r="CK46" t="s">
         <v>142</v>
       </c>
@@ -20650,9 +20329,6 @@
       </c>
       <c r="DD46" t="s">
         <v>955</v>
-      </c>
-      <c r="DH46">
-        <v>0</v>
       </c>
       <c r="DI46">
         <v>384994623</v>
@@ -20824,12 +20500,6 @@
       <c r="BD47" t="s">
         <v>143</v>
       </c>
-      <c r="BE47">
-        <v>0</v>
-      </c>
-      <c r="BF47">
-        <v>0</v>
-      </c>
       <c r="BG47" t="s">
         <v>199</v>
       </c>
@@ -20970,9 +20640,6 @@
       </c>
       <c r="DD47" t="s">
         <v>972</v>
-      </c>
-      <c r="DH47">
-        <v>0</v>
       </c>
       <c r="DI47">
         <v>385021337</v>
@@ -21144,12 +20811,6 @@
       <c r="BD48" t="s">
         <v>143</v>
       </c>
-      <c r="BE48">
-        <v>0</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
       <c r="BG48" t="s">
         <v>199</v>
       </c>
@@ -21231,9 +20892,6 @@
       <c r="CH48" t="s">
         <v>143</v>
       </c>
-      <c r="CI48">
-        <v>0</v>
-      </c>
       <c r="CK48" t="s">
         <v>142</v>
       </c>
@@ -21290,9 +20948,6 @@
       </c>
       <c r="DD48" t="s">
         <v>988</v>
-      </c>
-      <c r="DH48">
-        <v>0</v>
       </c>
       <c r="DI48">
         <v>385038373</v>
@@ -21611,9 +21266,6 @@
       <c r="DD49" t="s">
         <v>1006</v>
       </c>
-      <c r="DH49">
-        <v>0</v>
-      </c>
       <c r="DI49">
         <v>385044408</v>
       </c>
@@ -21871,9 +21523,6 @@
       <c r="CH50" t="s">
         <v>143</v>
       </c>
-      <c r="CI50">
-        <v>0</v>
-      </c>
       <c r="CK50" t="s">
         <v>142</v>
       </c>
@@ -21930,9 +21579,6 @@
       </c>
       <c r="DD50" t="s">
         <v>1024</v>
-      </c>
-      <c r="DH50">
-        <v>0</v>
       </c>
       <c r="DI50">
         <v>385045969</v>
@@ -22104,12 +21750,6 @@
       <c r="BD51" t="s">
         <v>143</v>
       </c>
-      <c r="BE51">
-        <v>0</v>
-      </c>
-      <c r="BF51">
-        <v>0</v>
-      </c>
       <c r="BG51" t="s">
         <v>176</v>
       </c>
@@ -22152,9 +21792,6 @@
       <c r="BU51" t="s">
         <v>304</v>
       </c>
-      <c r="BV51">
-        <v>0</v>
-      </c>
       <c r="BW51" t="s">
         <v>133</v>
       </c>
@@ -22191,9 +21828,6 @@
       <c r="CH51" t="s">
         <v>143</v>
       </c>
-      <c r="CI51">
-        <v>0</v>
-      </c>
       <c r="CK51" t="s">
         <v>148</v>
       </c>
@@ -22250,9 +21884,6 @@
       </c>
       <c r="DD51" t="s">
         <v>1040</v>
-      </c>
-      <c r="DH51">
-        <v>0</v>
       </c>
       <c r="DI51">
         <v>385046649</v>
@@ -22511,9 +22142,6 @@
       <c r="CH52" t="s">
         <v>143</v>
       </c>
-      <c r="CI52">
-        <v>0</v>
-      </c>
       <c r="CK52" t="s">
         <v>142</v>
       </c>
@@ -22570,9 +22198,6 @@
       </c>
       <c r="DD52" t="s">
         <v>1055</v>
-      </c>
-      <c r="DH52">
-        <v>0</v>
       </c>
       <c r="DI52">
         <v>385075192</v>
@@ -22744,12 +22369,6 @@
       <c r="BD53" t="s">
         <v>143</v>
       </c>
-      <c r="BE53">
-        <v>0</v>
-      </c>
-      <c r="BF53">
-        <v>0</v>
-      </c>
       <c r="BG53" t="s">
         <v>147</v>
       </c>
@@ -22831,9 +22450,6 @@
       <c r="CH53" t="s">
         <v>143</v>
       </c>
-      <c r="CI53">
-        <v>0</v>
-      </c>
       <c r="CK53" t="s">
         <v>148</v>
       </c>
@@ -22890,9 +22506,6 @@
       </c>
       <c r="DD53" t="s">
         <v>1073</v>
-      </c>
-      <c r="DH53">
-        <v>0</v>
       </c>
       <c r="DI53">
         <v>385237666</v>
@@ -23112,9 +22725,6 @@
       <c r="BU54" t="s">
         <v>304</v>
       </c>
-      <c r="BV54">
-        <v>0</v>
-      </c>
       <c r="BW54" t="s">
         <v>133</v>
       </c>
@@ -23151,9 +22761,6 @@
       <c r="CH54" t="s">
         <v>143</v>
       </c>
-      <c r="CI54">
-        <v>0</v>
-      </c>
       <c r="CK54" t="s">
         <v>142</v>
       </c>
@@ -23210,9 +22817,6 @@
       </c>
       <c r="DD54" t="s">
         <v>1089</v>
-      </c>
-      <c r="DH54">
-        <v>0</v>
       </c>
       <c r="DI54">
         <v>385363305</v>
@@ -23471,9 +23075,6 @@
       <c r="CH55" t="s">
         <v>143</v>
       </c>
-      <c r="CI55">
-        <v>0</v>
-      </c>
       <c r="CK55" t="s">
         <v>142</v>
       </c>
@@ -23530,9 +23131,6 @@
       </c>
       <c r="DD55" t="s">
         <v>1107</v>
-      </c>
-      <c r="DH55">
-        <v>0</v>
       </c>
       <c r="DI55">
         <v>385385886</v>
@@ -23791,9 +23389,6 @@
       <c r="CH56" t="s">
         <v>143</v>
       </c>
-      <c r="CI56">
-        <v>0</v>
-      </c>
       <c r="CK56" t="s">
         <v>148</v>
       </c>
@@ -23850,9 +23445,6 @@
       </c>
       <c r="DD56" t="s">
         <v>1125</v>
-      </c>
-      <c r="DH56">
-        <v>0</v>
       </c>
       <c r="DI56">
         <v>385390331</v>
@@ -24111,9 +23703,6 @@
       <c r="CH57" t="s">
         <v>143</v>
       </c>
-      <c r="CI57">
-        <v>0</v>
-      </c>
       <c r="CK57" t="s">
         <v>142</v>
       </c>
@@ -24170,9 +23759,6 @@
       </c>
       <c r="DD57" t="s">
         <v>1140</v>
-      </c>
-      <c r="DH57">
-        <v>0</v>
       </c>
       <c r="DI57">
         <v>385420210</v>
@@ -24431,9 +24017,6 @@
       <c r="CH58" t="s">
         <v>143</v>
       </c>
-      <c r="CI58">
-        <v>0</v>
-      </c>
       <c r="CK58" t="s">
         <v>142</v>
       </c>
@@ -24490,9 +24073,6 @@
       </c>
       <c r="DD58" t="s">
         <v>1157</v>
-      </c>
-      <c r="DH58">
-        <v>0</v>
       </c>
       <c r="DI58">
         <v>385443561</v>
@@ -24751,9 +24331,6 @@
       <c r="CH59" t="s">
         <v>143</v>
       </c>
-      <c r="CI59">
-        <v>0</v>
-      </c>
       <c r="CK59" t="s">
         <v>142</v>
       </c>
@@ -24810,9 +24387,6 @@
       </c>
       <c r="DD59" t="s">
         <v>1171</v>
-      </c>
-      <c r="DH59">
-        <v>0</v>
       </c>
       <c r="DI59">
         <v>385447337</v>
@@ -25071,9 +24645,6 @@
       <c r="CH60" t="s">
         <v>143</v>
       </c>
-      <c r="CI60">
-        <v>0</v>
-      </c>
       <c r="CK60" t="s">
         <v>142</v>
       </c>
@@ -25130,9 +24701,6 @@
       </c>
       <c r="DD60" t="s">
         <v>1187</v>
-      </c>
-      <c r="DH60">
-        <v>0</v>
       </c>
       <c r="DI60">
         <v>385477461</v>
@@ -25352,9 +24920,6 @@
       <c r="BU61" t="s">
         <v>304</v>
       </c>
-      <c r="BV61">
-        <v>0</v>
-      </c>
       <c r="BW61" t="s">
         <v>133</v>
       </c>
@@ -25391,9 +24956,6 @@
       <c r="CH61" t="s">
         <v>143</v>
       </c>
-      <c r="CI61">
-        <v>0</v>
-      </c>
       <c r="CK61" t="s">
         <v>142</v>
       </c>
@@ -25450,9 +25012,6 @@
       </c>
       <c r="DD61" t="s">
         <v>1203</v>
-      </c>
-      <c r="DH61">
-        <v>0</v>
       </c>
       <c r="DI61">
         <v>385479381</v>
@@ -25693,9 +25252,6 @@
       <c r="CB62" t="s">
         <v>304</v>
       </c>
-      <c r="CC62">
-        <v>0</v>
-      </c>
       <c r="CD62" t="s">
         <v>142</v>
       </c>
@@ -25711,9 +25267,6 @@
       <c r="CH62" t="s">
         <v>143</v>
       </c>
-      <c r="CI62">
-        <v>0</v>
-      </c>
       <c r="CK62" t="s">
         <v>142</v>
       </c>
@@ -25770,9 +25323,6 @@
       </c>
       <c r="DD62" t="s">
         <v>1220</v>
-      </c>
-      <c r="DH62">
-        <v>0</v>
       </c>
       <c r="DI62">
         <v>385487982</v>
@@ -26031,9 +25581,6 @@
       <c r="CH63" t="s">
         <v>143</v>
       </c>
-      <c r="CI63">
-        <v>0</v>
-      </c>
       <c r="CK63" t="s">
         <v>142</v>
       </c>
@@ -26090,9 +25637,6 @@
       </c>
       <c r="DD63" t="s">
         <v>1236</v>
-      </c>
-      <c r="DH63">
-        <v>0</v>
       </c>
       <c r="DI63">
         <v>385504153</v>
@@ -26264,12 +25808,6 @@
       <c r="BD64" t="s">
         <v>143</v>
       </c>
-      <c r="BE64">
-        <v>0</v>
-      </c>
-      <c r="BF64">
-        <v>0</v>
-      </c>
       <c r="BG64" t="s">
         <v>147</v>
       </c>
@@ -26312,15 +25850,9 @@
       <c r="BU64" t="s">
         <v>304</v>
       </c>
-      <c r="BV64">
-        <v>0</v>
-      </c>
       <c r="BW64" t="s">
         <v>304</v>
       </c>
-      <c r="BX64">
-        <v>0</v>
-      </c>
       <c r="BY64" t="s">
         <v>142</v>
       </c>
@@ -26333,9 +25865,6 @@
       <c r="CB64" t="s">
         <v>304</v>
       </c>
-      <c r="CC64">
-        <v>0</v>
-      </c>
       <c r="CD64" t="s">
         <v>142</v>
       </c>
@@ -26351,9 +25880,6 @@
       <c r="CH64" t="s">
         <v>143</v>
       </c>
-      <c r="CI64">
-        <v>0</v>
-      </c>
       <c r="CK64" t="s">
         <v>142</v>
       </c>
@@ -26410,9 +25936,6 @@
       </c>
       <c r="DD64" t="s">
         <v>1249</v>
-      </c>
-      <c r="DH64">
-        <v>0</v>
       </c>
       <c r="DI64">
         <v>385505772</v>
@@ -26671,9 +26194,6 @@
       <c r="CH65" t="s">
         <v>143</v>
       </c>
-      <c r="CI65">
-        <v>0</v>
-      </c>
       <c r="CK65" t="s">
         <v>142</v>
       </c>
@@ -26730,9 +26250,6 @@
       </c>
       <c r="DD65" t="s">
         <v>1264</v>
-      </c>
-      <c r="DH65">
-        <v>0</v>
       </c>
       <c r="DI65">
         <v>385517825</v>
@@ -26952,9 +26469,6 @@
       <c r="BU66" t="s">
         <v>304</v>
       </c>
-      <c r="BV66">
-        <v>0</v>
-      </c>
       <c r="BW66" t="s">
         <v>133</v>
       </c>
@@ -26991,9 +26505,6 @@
       <c r="CH66" t="s">
         <v>143</v>
       </c>
-      <c r="CI66">
-        <v>0</v>
-      </c>
       <c r="CK66" t="s">
         <v>148</v>
       </c>
@@ -27050,9 +26561,6 @@
       </c>
       <c r="DD66" t="s">
         <v>218</v>
-      </c>
-      <c r="DH66">
-        <v>0</v>
       </c>
       <c r="DI66">
         <v>385550312</v>
@@ -27311,9 +26819,6 @@
       <c r="CH67" t="s">
         <v>143</v>
       </c>
-      <c r="CI67">
-        <v>0</v>
-      </c>
       <c r="CK67" t="s">
         <v>142</v>
       </c>
@@ -27370,9 +26875,6 @@
       </c>
       <c r="DD67" t="s">
         <v>1296</v>
-      </c>
-      <c r="DH67">
-        <v>0</v>
       </c>
       <c r="DI67">
         <v>385605197</v>
@@ -27631,9 +27133,6 @@
       <c r="CH68" t="s">
         <v>143</v>
       </c>
-      <c r="CI68">
-        <v>0</v>
-      </c>
       <c r="CK68" t="s">
         <v>142</v>
       </c>
@@ -27690,9 +27189,6 @@
       </c>
       <c r="DD68" t="s">
         <v>218</v>
-      </c>
-      <c r="DH68">
-        <v>0</v>
       </c>
       <c r="DI68">
         <v>385613116</v>
@@ -27951,9 +27447,6 @@
       <c r="CH69" t="s">
         <v>143</v>
       </c>
-      <c r="CI69">
-        <v>0</v>
-      </c>
       <c r="CK69" t="s">
         <v>142</v>
       </c>
@@ -28010,9 +27503,6 @@
       </c>
       <c r="DD69" t="s">
         <v>1327</v>
-      </c>
-      <c r="DH69">
-        <v>0</v>
       </c>
       <c r="DI69">
         <v>385644439</v>
@@ -28232,9 +27722,6 @@
       <c r="BU70" t="s">
         <v>304</v>
       </c>
-      <c r="BV70">
-        <v>0</v>
-      </c>
       <c r="BW70" t="s">
         <v>133</v>
       </c>
@@ -28271,9 +27758,6 @@
       <c r="CH70" t="s">
         <v>143</v>
       </c>
-      <c r="CI70">
-        <v>0</v>
-      </c>
       <c r="CK70" t="s">
         <v>148</v>
       </c>
@@ -28330,9 +27814,6 @@
       </c>
       <c r="DD70" t="s">
         <v>218</v>
-      </c>
-      <c r="DH70">
-        <v>0</v>
       </c>
       <c r="DI70">
         <v>385789742</v>
@@ -28591,9 +28072,6 @@
       <c r="CH71" t="s">
         <v>143</v>
       </c>
-      <c r="CI71">
-        <v>0</v>
-      </c>
       <c r="CK71" t="s">
         <v>142</v>
       </c>
@@ -28650,9 +28128,6 @@
       </c>
       <c r="DD71" t="s">
         <v>218</v>
-      </c>
-      <c r="DH71">
-        <v>0</v>
       </c>
       <c r="DI71">
         <v>385813983</v>
@@ -28911,9 +28386,6 @@
       <c r="CH72" t="s">
         <v>143</v>
       </c>
-      <c r="CI72">
-        <v>0</v>
-      </c>
       <c r="CK72" t="s">
         <v>142</v>
       </c>
@@ -28970,9 +28442,6 @@
       </c>
       <c r="DD72" t="s">
         <v>728</v>
-      </c>
-      <c r="DH72">
-        <v>0</v>
       </c>
       <c r="DI72">
         <v>385814590</v>
@@ -29144,12 +28613,6 @@
       <c r="BD73" t="s">
         <v>143</v>
       </c>
-      <c r="BE73">
-        <v>0</v>
-      </c>
-      <c r="BF73">
-        <v>0</v>
-      </c>
       <c r="BG73" t="s">
         <v>199</v>
       </c>
@@ -29231,9 +28694,6 @@
       <c r="CH73" t="s">
         <v>143</v>
       </c>
-      <c r="CI73">
-        <v>0</v>
-      </c>
       <c r="CK73" t="s">
         <v>142</v>
       </c>
@@ -29290,9 +28750,6 @@
       </c>
       <c r="DD73" t="s">
         <v>1379</v>
-      </c>
-      <c r="DH73">
-        <v>0</v>
       </c>
       <c r="DI73">
         <v>385822367</v>
@@ -29611,9 +29068,6 @@
       <c r="DD74" t="s">
         <v>1396</v>
       </c>
-      <c r="DH74">
-        <v>0</v>
-      </c>
       <c r="DI74">
         <v>385826155</v>
       </c>
@@ -29871,9 +29325,6 @@
       <c r="CH75" t="s">
         <v>143</v>
       </c>
-      <c r="CI75">
-        <v>0</v>
-      </c>
       <c r="CK75" t="s">
         <v>142</v>
       </c>
@@ -29930,9 +29381,6 @@
       </c>
       <c r="DD75" t="s">
         <v>218</v>
-      </c>
-      <c r="DH75">
-        <v>0</v>
       </c>
       <c r="DI75">
         <v>385838295</v>
@@ -30104,12 +29552,6 @@
       <c r="BD76" t="s">
         <v>143</v>
       </c>
-      <c r="BE76">
-        <v>0</v>
-      </c>
-      <c r="BF76">
-        <v>0</v>
-      </c>
       <c r="BG76" t="s">
         <v>199</v>
       </c>
@@ -30152,9 +29594,6 @@
       <c r="BU76" t="s">
         <v>304</v>
       </c>
-      <c r="BV76">
-        <v>0</v>
-      </c>
       <c r="BW76" t="s">
         <v>133</v>
       </c>
@@ -30191,9 +29630,6 @@
       <c r="CH76" t="s">
         <v>143</v>
       </c>
-      <c r="CI76">
-        <v>0</v>
-      </c>
       <c r="CK76" t="s">
         <v>142</v>
       </c>
@@ -30250,9 +29686,6 @@
       </c>
       <c r="DD76" t="s">
         <v>1428</v>
-      </c>
-      <c r="DH76">
-        <v>0</v>
       </c>
       <c r="DI76">
         <v>385853519</v>
@@ -30511,9 +29944,6 @@
       <c r="CH77" t="s">
         <v>143</v>
       </c>
-      <c r="CI77">
-        <v>0</v>
-      </c>
       <c r="CK77" t="s">
         <v>148</v>
       </c>
@@ -30570,9 +30000,6 @@
       </c>
       <c r="DD77" t="s">
         <v>1446</v>
-      </c>
-      <c r="DH77">
-        <v>0</v>
       </c>
       <c r="DI77">
         <v>385895948</v>
@@ -30792,9 +30219,6 @@
       <c r="BU78" t="s">
         <v>304</v>
       </c>
-      <c r="BV78">
-        <v>0</v>
-      </c>
       <c r="BW78" t="s">
         <v>133</v>
       </c>
@@ -30831,9 +30255,6 @@
       <c r="CH78" t="s">
         <v>143</v>
       </c>
-      <c r="CI78">
-        <v>0</v>
-      </c>
       <c r="CK78" t="s">
         <v>142</v>
       </c>
@@ -30890,9 +30311,6 @@
       </c>
       <c r="DD78" t="s">
         <v>1463</v>
-      </c>
-      <c r="DH78">
-        <v>0</v>
       </c>
       <c r="DI78">
         <v>385950412</v>
@@ -31199,9 +30617,6 @@
       <c r="CZ79" t="s">
         <v>148</v>
       </c>
-      <c r="DA79">
-        <v>0</v>
-      </c>
       <c r="DB79" t="s">
         <v>1478</v>
       </c>
@@ -31210,9 +30625,6 @@
       </c>
       <c r="DD79" t="s">
         <v>1479</v>
-      </c>
-      <c r="DH79">
-        <v>0</v>
       </c>
       <c r="DI79">
         <v>386187121</v>
@@ -31471,9 +30883,6 @@
       <c r="CH80" t="s">
         <v>143</v>
       </c>
-      <c r="CI80">
-        <v>0</v>
-      </c>
       <c r="CK80" t="s">
         <v>142</v>
       </c>
@@ -31530,9 +30939,6 @@
       </c>
       <c r="DD80" t="s">
         <v>218</v>
-      </c>
-      <c r="DH80">
-        <v>0</v>
       </c>
       <c r="DI80">
         <v>386188728</v>
@@ -31704,12 +31110,6 @@
       <c r="BD81" t="s">
         <v>143</v>
       </c>
-      <c r="BE81">
-        <v>0</v>
-      </c>
-      <c r="BF81">
-        <v>0</v>
-      </c>
       <c r="BG81" t="s">
         <v>145</v>
       </c>
@@ -31773,9 +31173,6 @@
       <c r="CB81" t="s">
         <v>304</v>
       </c>
-      <c r="CC81">
-        <v>0</v>
-      </c>
       <c r="CD81" t="s">
         <v>142</v>
       </c>
@@ -31791,9 +31188,6 @@
       <c r="CH81" t="s">
         <v>143</v>
       </c>
-      <c r="CI81">
-        <v>0</v>
-      </c>
       <c r="CK81" t="s">
         <v>142</v>
       </c>
@@ -31850,9 +31244,6 @@
       </c>
       <c r="DD81" t="s">
         <v>1511</v>
-      </c>
-      <c r="DH81">
-        <v>0</v>
       </c>
       <c r="DI81">
         <v>386224418</v>
@@ -32111,9 +31502,6 @@
       <c r="CH82" t="s">
         <v>143</v>
       </c>
-      <c r="CI82">
-        <v>0</v>
-      </c>
       <c r="CK82" t="s">
         <v>148</v>
       </c>
@@ -32170,9 +31558,6 @@
       </c>
       <c r="DD82" t="s">
         <v>218</v>
-      </c>
-      <c r="DH82">
-        <v>0</v>
       </c>
       <c r="DI82">
         <v>386254472</v>
@@ -32431,9 +31816,6 @@
       <c r="CH83" t="s">
         <v>143</v>
       </c>
-      <c r="CI83">
-        <v>0</v>
-      </c>
       <c r="CK83" t="s">
         <v>142</v>
       </c>
@@ -32490,9 +31872,6 @@
       </c>
       <c r="DD83" t="s">
         <v>1541</v>
-      </c>
-      <c r="DH83">
-        <v>0</v>
       </c>
       <c r="DI83">
         <v>386254705</v>
@@ -32712,9 +32091,6 @@
       <c r="BU84" t="s">
         <v>304</v>
       </c>
-      <c r="BV84">
-        <v>0</v>
-      </c>
       <c r="BW84" t="s">
         <v>133</v>
       </c>
@@ -32751,9 +32127,6 @@
       <c r="CH84" t="s">
         <v>143</v>
       </c>
-      <c r="CI84">
-        <v>0</v>
-      </c>
       <c r="CK84" t="s">
         <v>142</v>
       </c>
@@ -32810,9 +32183,6 @@
       </c>
       <c r="DD84" t="s">
         <v>1557</v>
-      </c>
-      <c r="DH84">
-        <v>0</v>
       </c>
       <c r="DI84">
         <v>386280804</v>
@@ -33071,9 +32441,6 @@
       <c r="CH85" t="s">
         <v>143</v>
       </c>
-      <c r="CI85">
-        <v>0</v>
-      </c>
       <c r="CK85" t="s">
         <v>142</v>
       </c>
@@ -33130,9 +32497,6 @@
       </c>
       <c r="DD85" t="s">
         <v>218</v>
-      </c>
-      <c r="DH85">
-        <v>0</v>
       </c>
       <c r="DI85">
         <v>386298437</v>
@@ -33352,9 +32716,6 @@
       <c r="BU86" t="s">
         <v>304</v>
       </c>
-      <c r="BV86">
-        <v>0</v>
-      </c>
       <c r="BW86" t="s">
         <v>172</v>
       </c>
@@ -33391,9 +32752,6 @@
       <c r="CH86" t="s">
         <v>143</v>
       </c>
-      <c r="CI86">
-        <v>0</v>
-      </c>
       <c r="CK86" t="s">
         <v>142</v>
       </c>
@@ -33450,9 +32808,6 @@
       </c>
       <c r="DD86" t="s">
         <v>1587</v>
-      </c>
-      <c r="DH86">
-        <v>0</v>
       </c>
       <c r="DI86">
         <v>386352158</v>
@@ -33711,9 +33066,6 @@
       <c r="CH87" t="s">
         <v>143</v>
       </c>
-      <c r="CI87">
-        <v>0</v>
-      </c>
       <c r="CK87" t="s">
         <v>148</v>
       </c>
@@ -33770,9 +33122,6 @@
       </c>
       <c r="DD87" t="s">
         <v>1604</v>
-      </c>
-      <c r="DH87">
-        <v>0</v>
       </c>
       <c r="DI87">
         <v>386440260</v>
@@ -34031,9 +33380,6 @@
       <c r="CH88" t="s">
         <v>143</v>
       </c>
-      <c r="CI88">
-        <v>0</v>
-      </c>
       <c r="CK88" t="s">
         <v>142</v>
       </c>
@@ -34090,9 +33436,6 @@
       </c>
       <c r="DD88" t="s">
         <v>1620</v>
-      </c>
-      <c r="DH88">
-        <v>0</v>
       </c>
       <c r="DI88">
         <v>386449514</v>
@@ -34312,9 +33655,6 @@
       <c r="BU89" t="s">
         <v>304</v>
       </c>
-      <c r="BV89">
-        <v>0</v>
-      </c>
       <c r="BW89" t="s">
         <v>133</v>
       </c>
@@ -34351,9 +33691,6 @@
       <c r="CH89" t="s">
         <v>143</v>
       </c>
-      <c r="CI89">
-        <v>0</v>
-      </c>
       <c r="CK89" t="s">
         <v>142</v>
       </c>
@@ -34410,9 +33747,6 @@
       </c>
       <c r="DD89" t="s">
         <v>218</v>
-      </c>
-      <c r="DH89">
-        <v>0</v>
       </c>
       <c r="DI89">
         <v>386449557</v>
@@ -34671,9 +34005,6 @@
       <c r="CH90" t="s">
         <v>143</v>
       </c>
-      <c r="CI90">
-        <v>0</v>
-      </c>
       <c r="CK90" t="s">
         <v>142</v>
       </c>
@@ -34730,9 +34061,6 @@
       </c>
       <c r="DD90" t="s">
         <v>1651</v>
-      </c>
-      <c r="DH90">
-        <v>0</v>
       </c>
       <c r="DI90">
         <v>386451881</v>
@@ -34991,9 +34319,6 @@
       <c r="CH91" t="s">
         <v>143</v>
       </c>
-      <c r="CI91">
-        <v>0</v>
-      </c>
       <c r="CK91" t="s">
         <v>142</v>
       </c>
@@ -35050,9 +34375,6 @@
       </c>
       <c r="DD91" t="s">
         <v>1651</v>
-      </c>
-      <c r="DH91">
-        <v>0</v>
       </c>
       <c r="DI91">
         <v>386460504</v>
@@ -35272,9 +34594,6 @@
       <c r="BU92" t="s">
         <v>304</v>
       </c>
-      <c r="BV92">
-        <v>0</v>
-      </c>
       <c r="BW92" t="s">
         <v>133</v>
       </c>
@@ -35311,9 +34630,6 @@
       <c r="CH92" t="s">
         <v>143</v>
       </c>
-      <c r="CI92">
-        <v>0</v>
-      </c>
       <c r="CK92" t="s">
         <v>148</v>
       </c>
@@ -35370,9 +34686,6 @@
       </c>
       <c r="DD92" t="s">
         <v>1679</v>
-      </c>
-      <c r="DH92">
-        <v>0</v>
       </c>
       <c r="DI92">
         <v>386665650</v>
@@ -35631,9 +34944,6 @@
       <c r="CH93" t="s">
         <v>143</v>
       </c>
-      <c r="CI93">
-        <v>0</v>
-      </c>
       <c r="CK93" t="s">
         <v>148</v>
       </c>
@@ -35690,9 +35000,6 @@
       </c>
       <c r="DD93" t="s">
         <v>1696</v>
-      </c>
-      <c r="DH93">
-        <v>0</v>
       </c>
       <c r="DI93">
         <v>386680499</v>
@@ -35951,9 +35258,6 @@
       <c r="CH94" t="s">
         <v>143</v>
       </c>
-      <c r="CI94">
-        <v>0</v>
-      </c>
       <c r="CK94" t="s">
         <v>148</v>
       </c>
@@ -36010,9 +35314,6 @@
       </c>
       <c r="DD94" t="s">
         <v>1714</v>
-      </c>
-      <c r="DH94">
-        <v>0</v>
       </c>
       <c r="DI94">
         <v>386704741</v>
@@ -36271,9 +35572,6 @@
       <c r="CH95" t="s">
         <v>143</v>
       </c>
-      <c r="CI95">
-        <v>0</v>
-      </c>
       <c r="CK95" t="s">
         <v>142</v>
       </c>
@@ -36330,9 +35628,6 @@
       </c>
       <c r="DD95" t="s">
         <v>1731</v>
-      </c>
-      <c r="DH95">
-        <v>0</v>
       </c>
       <c r="DI95">
         <v>386742198</v>
@@ -36591,9 +35886,6 @@
       <c r="CH96" t="s">
         <v>143</v>
       </c>
-      <c r="CI96">
-        <v>0</v>
-      </c>
       <c r="CK96" t="s">
         <v>142</v>
       </c>
@@ -36650,9 +35942,6 @@
       </c>
       <c r="DD96" t="s">
         <v>1748</v>
-      </c>
-      <c r="DH96">
-        <v>0</v>
       </c>
       <c r="DI96">
         <v>386749648</v>
@@ -36911,9 +36200,6 @@
       <c r="CH97" t="s">
         <v>143</v>
       </c>
-      <c r="CI97">
-        <v>0</v>
-      </c>
       <c r="CK97" t="s">
         <v>142</v>
       </c>
@@ -36970,9 +36256,6 @@
       </c>
       <c r="DD97" t="s">
         <v>384</v>
-      </c>
-      <c r="DH97">
-        <v>0</v>
       </c>
       <c r="DI97">
         <v>386764256</v>
@@ -37192,9 +36475,6 @@
       <c r="BU98" t="s">
         <v>304</v>
       </c>
-      <c r="BV98">
-        <v>0</v>
-      </c>
       <c r="BW98" t="s">
         <v>133</v>
       </c>
@@ -37231,9 +36511,6 @@
       <c r="CH98" t="s">
         <v>143</v>
       </c>
-      <c r="CI98">
-        <v>0</v>
-      </c>
       <c r="CK98" t="s">
         <v>142</v>
       </c>
@@ -37290,9 +36567,6 @@
       </c>
       <c r="DD98" t="s">
         <v>1777</v>
-      </c>
-      <c r="DH98">
-        <v>0</v>
       </c>
       <c r="DI98">
         <v>387108297</v>
@@ -37464,12 +36738,6 @@
       <c r="BD99" t="s">
         <v>143</v>
       </c>
-      <c r="BE99">
-        <v>0</v>
-      </c>
-      <c r="BF99">
-        <v>0</v>
-      </c>
       <c r="BG99" t="s">
         <v>145</v>
       </c>
@@ -37533,9 +36801,6 @@
       <c r="CB99" t="s">
         <v>207</v>
       </c>
-      <c r="CC99">
-        <v>0</v>
-      </c>
       <c r="CD99" t="s">
         <v>143</v>
       </c>
@@ -37551,9 +36816,6 @@
       <c r="CH99" t="s">
         <v>143</v>
       </c>
-      <c r="CI99">
-        <v>0</v>
-      </c>
       <c r="CK99" t="s">
         <v>142</v>
       </c>
@@ -37610,9 +36872,6 @@
       </c>
       <c r="DD99" t="s">
         <v>1792</v>
-      </c>
-      <c r="DH99">
-        <v>0</v>
       </c>
       <c r="DI99">
         <v>387161023</v>
@@ -37871,9 +37130,6 @@
       <c r="CH100" t="s">
         <v>143</v>
       </c>
-      <c r="CI100">
-        <v>0</v>
-      </c>
       <c r="CK100" t="s">
         <v>142</v>
       </c>
@@ -37930,9 +37186,6 @@
       </c>
       <c r="DD100" t="s">
         <v>1809</v>
-      </c>
-      <c r="DH100">
-        <v>0</v>
       </c>
       <c r="DI100">
         <v>387255736</v>
@@ -38152,9 +37405,6 @@
       <c r="BU101" t="s">
         <v>304</v>
       </c>
-      <c r="BV101">
-        <v>0</v>
-      </c>
       <c r="BW101" t="s">
         <v>133</v>
       </c>
@@ -38191,9 +37441,6 @@
       <c r="CH101" t="s">
         <v>143</v>
       </c>
-      <c r="CI101">
-        <v>0</v>
-      </c>
       <c r="CK101" t="s">
         <v>142</v>
       </c>
@@ -38250,9 +37497,6 @@
       </c>
       <c r="DD101" t="s">
         <v>1825</v>
-      </c>
-      <c r="DH101">
-        <v>0</v>
       </c>
       <c r="DI101">
         <v>387288352</v>
